--- a/medicine/Psychotrope/La_Tasse_de_thé_(Cassatt)/La_Tasse_de_thé_(Cassatt).xlsx
+++ b/medicine/Psychotrope/La_Tasse_de_thé_(Cassatt)/La_Tasse_de_thé_(Cassatt).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Tasse_de_th%C3%A9_(Cassatt)</t>
+          <t>La_Tasse_de_thé_(Cassatt)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Tasse de thé (en anglais, The Cup of Tea) est une peinture réalisée à l'huile sur toile par l'artiste américaine Mary Cassatt à Paris vers 1880 à 1881 en prenant sa sœur Lydia comme modèle[1],[2]. L'œuvre de  92,4 × 65,4 cm est conservée au Metropolitan Museum of Art de New York[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Tasse de thé (en anglais, The Cup of Tea) est une peinture réalisée à l'huile sur toile par l'artiste américaine Mary Cassatt à Paris vers 1880 à 1881 en prenant sa sœur Lydia comme modèle,. L'œuvre de  92,4 × 65,4 cm est conservée au Metropolitan Museum of Art de New York.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Tasse_de_th%C3%A9_(Cassatt)</t>
+          <t>La_Tasse_de_thé_(Cassatt)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description et style</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mary Cassatt est une peintre américaine qui a vécu à l'étranger en Europe pendant plus d'une décennie. Comme d'autres femmes artistes de son époque, les sujets de Cassatt sont fréquemment des scènes domestiques. Des sujets privilégiés car les femmes à l'époque de Cassatt n'avaient pas le droit de sortir seules. La tasse de thé dépeint un « rituel social pour les femmes de la classe moyenne supérieure » [3]. L'artiste a adopté une manière impressionniste[4],[5]  en utilisant des couleurs contrastées et complémentaires[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mary Cassatt est une peintre américaine qui a vécu à l'étranger en Europe pendant plus d'une décennie. Comme d'autres femmes artistes de son époque, les sujets de Cassatt sont fréquemment des scènes domestiques. Des sujets privilégiés car les femmes à l'époque de Cassatt n'avaient pas le droit de sortir seules. La tasse de thé dépeint un « rituel social pour les femmes de la classe moyenne supérieure » . L'artiste a adopté une manière impressionniste,  en utilisant des couleurs contrastées et complémentaires.
 </t>
         </is>
       </c>
